--- a/biology/Botanique/Saturn_(pomme)/Saturn_(pomme).xlsx
+++ b/biology/Botanique/Saturn_(pomme)/Saturn_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saturn est le nom d'un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Droits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>SATURN est une variété enregistrée par l'Union Européenne :
 numéro de référence : 3421
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Usage : pomme à couteau.
 Fleurs : blanches.
@@ -579,7 +595,9 @@
           <t>Origine.</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1980, EUROPE, Angleterre, Kent, East Malling Research Station.
 </t>
@@ -610,9 +628,11 @@
           <t>Pollinisation.</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cultivar diploïde autofertile[1], deux caractéristiques utiles dans un petit jardin familial où la pollinisation croisée peut être difficile.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cultivar diploïde autofertile, deux caractéristiques utiles dans un petit jardin familial où la pollinisation croisée peut être difficile.
 Groupe de floraison : C (mi-saison).</t>
         </is>
       </c>
@@ -641,7 +661,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Starkspur Golden Delicious x PRI 1235
 </t>
@@ -672,7 +694,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Très forte résistance aux races communes de tavelure. Cette caractéristique est intéressante pour les petits jardins familiaux où les traitements chimiques sont réduits et non systématiques.
 </t>
@@ -703,9 +727,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vigueur du cultivar : modérée[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vigueur du cultivar : modérée.
 Fructification : croissance de type spur.
 Cueillette : fin septembre.
 Conservation : jusque fin janvier.
